--- a/po_analysis_by_asin/B0BHW9TY8K_po_data.xlsx
+++ b/po_analysis_by_asin/B0BHW9TY8K_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,49 +452,89 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45355</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45397</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45404</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45439</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>152</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45453</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>84</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B7" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B12" t="n">
         <v>28</v>
       </c>
     </row>
@@ -509,7 +549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,41 +571,57 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45352</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>16</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45383</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45413</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>152</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45444</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>84</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45474</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B6" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B8" t="n">
         <v>28</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BHW9TY8K_po_data.xlsx
+++ b/po_analysis_by_asin/B0BHW9TY8K_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,89 +452,57 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45123.99999999999</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45130.99999999999</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45137.99999999999</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45144.99999999999</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45158.99999999999</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>36</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45361.99999999999</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45403.99999999999</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45410.99999999999</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45445.99999999999</v>
-      </c>
-      <c r="B10" t="n">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45459.99999999999</v>
-      </c>
-      <c r="B11" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45480.99999999999</v>
-      </c>
-      <c r="B12" t="n">
         <v>28</v>
       </c>
     </row>
@@ -549,7 +517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,57 +539,41 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45138.99999999999</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>130</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45169.99999999999</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45382.99999999999</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45412.99999999999</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>52</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45443.99999999999</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45473.99999999999</v>
-      </c>
-      <c r="B7" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45504.99999999999</v>
-      </c>
-      <c r="B8" t="n">
         <v>28</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BHW9TY8K_po_data.xlsx
+++ b/po_analysis_by_asin/B0BHW9TY8K_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -533,7 +534,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -575,6 +576,257 @@
       </c>
       <c r="B6" t="n">
         <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-30.92558061550366</v>
+      </c>
+      <c r="D2" t="n">
+        <v>76.49378777132839</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>27</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-26.08934420527964</v>
+      </c>
+      <c r="D3" t="n">
+        <v>83.53243886337668</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>60</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7.397927265350193</v>
+      </c>
+      <c r="D4" t="n">
+        <v>109.7899067501158</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>60</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.296946544343354</v>
+      </c>
+      <c r="D5" t="n">
+        <v>117.8248846802474</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>65</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9.849218670139605</v>
+      </c>
+      <c r="D6" t="n">
+        <v>114.9928625691831</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>67</v>
+      </c>
+      <c r="C7" t="n">
+        <v>12.42001171072675</v>
+      </c>
+      <c r="D7" t="n">
+        <v>121.3246374254171</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>70</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11.70850059367522</v>
+      </c>
+      <c r="D8" t="n">
+        <v>125.0567441906055</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>71</v>
+      </c>
+      <c r="C9" t="n">
+        <v>13.9988257384304</v>
+      </c>
+      <c r="D9" t="n">
+        <v>124.4062834702497</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>72</v>
+      </c>
+      <c r="C10" t="n">
+        <v>18.9841960607223</v>
+      </c>
+      <c r="D10" t="n">
+        <v>123.0914762408838</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>73</v>
+      </c>
+      <c r="C11" t="n">
+        <v>18.25310644493962</v>
+      </c>
+      <c r="D11" t="n">
+        <v>122.3919042730715</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>74</v>
+      </c>
+      <c r="C12" t="n">
+        <v>21.69015024409917</v>
+      </c>
+      <c r="D12" t="n">
+        <v>127.8574588004708</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>74</v>
+      </c>
+      <c r="C13" t="n">
+        <v>27.69594080909949</v>
+      </c>
+      <c r="D13" t="n">
+        <v>130.094687810353</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>75</v>
+      </c>
+      <c r="C14" t="n">
+        <v>24.70156614760692</v>
+      </c>
+      <c r="D14" t="n">
+        <v>132.227542252323</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>76</v>
+      </c>
+      <c r="C15" t="n">
+        <v>25.67979765296079</v>
+      </c>
+      <c r="D15" t="n">
+        <v>131.8407173014228</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>77</v>
+      </c>
+      <c r="C16" t="n">
+        <v>22.3412137731565</v>
+      </c>
+      <c r="D16" t="n">
+        <v>124.6198980300919</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BHW9TY8K_po_data.xlsx
+++ b/po_analysis_by_asin/B0BHW9TY8K_po_data.xlsx
@@ -589,7 +589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,16 +608,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -626,12 +616,6 @@
       <c r="B2" t="n">
         <v>25</v>
       </c>
-      <c r="C2" t="n">
-        <v>-30.92558061550366</v>
-      </c>
-      <c r="D2" t="n">
-        <v>76.49378777132839</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -640,12 +624,6 @@
       <c r="B3" t="n">
         <v>27</v>
       </c>
-      <c r="C3" t="n">
-        <v>-26.08934420527964</v>
-      </c>
-      <c r="D3" t="n">
-        <v>83.53243886337668</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -654,12 +632,6 @@
       <c r="B4" t="n">
         <v>60</v>
       </c>
-      <c r="C4" t="n">
-        <v>7.397927265350193</v>
-      </c>
-      <c r="D4" t="n">
-        <v>109.7899067501158</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -668,12 +640,6 @@
       <c r="B5" t="n">
         <v>60</v>
       </c>
-      <c r="C5" t="n">
-        <v>3.296946544343354</v>
-      </c>
-      <c r="D5" t="n">
-        <v>117.8248846802474</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -682,12 +648,6 @@
       <c r="B6" t="n">
         <v>65</v>
       </c>
-      <c r="C6" t="n">
-        <v>9.849218670139605</v>
-      </c>
-      <c r="D6" t="n">
-        <v>114.9928625691831</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -696,12 +656,6 @@
       <c r="B7" t="n">
         <v>67</v>
       </c>
-      <c r="C7" t="n">
-        <v>12.42001171072675</v>
-      </c>
-      <c r="D7" t="n">
-        <v>121.3246374254171</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -710,12 +664,6 @@
       <c r="B8" t="n">
         <v>70</v>
       </c>
-      <c r="C8" t="n">
-        <v>11.70850059367522</v>
-      </c>
-      <c r="D8" t="n">
-        <v>125.0567441906055</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -724,12 +672,6 @@
       <c r="B9" t="n">
         <v>71</v>
       </c>
-      <c r="C9" t="n">
-        <v>13.9988257384304</v>
-      </c>
-      <c r="D9" t="n">
-        <v>124.4062834702497</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -738,12 +680,6 @@
       <c r="B10" t="n">
         <v>72</v>
       </c>
-      <c r="C10" t="n">
-        <v>18.9841960607223</v>
-      </c>
-      <c r="D10" t="n">
-        <v>123.0914762408838</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -752,12 +688,6 @@
       <c r="B11" t="n">
         <v>73</v>
       </c>
-      <c r="C11" t="n">
-        <v>18.25310644493962</v>
-      </c>
-      <c r="D11" t="n">
-        <v>122.3919042730715</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -766,12 +696,6 @@
       <c r="B12" t="n">
         <v>74</v>
       </c>
-      <c r="C12" t="n">
-        <v>21.69015024409917</v>
-      </c>
-      <c r="D12" t="n">
-        <v>127.8574588004708</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -780,12 +704,6 @@
       <c r="B13" t="n">
         <v>74</v>
       </c>
-      <c r="C13" t="n">
-        <v>27.69594080909949</v>
-      </c>
-      <c r="D13" t="n">
-        <v>130.094687810353</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -794,12 +712,6 @@
       <c r="B14" t="n">
         <v>75</v>
       </c>
-      <c r="C14" t="n">
-        <v>24.70156614760692</v>
-      </c>
-      <c r="D14" t="n">
-        <v>132.227542252323</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -808,12 +720,6 @@
       <c r="B15" t="n">
         <v>76</v>
       </c>
-      <c r="C15" t="n">
-        <v>25.67979765296079</v>
-      </c>
-      <c r="D15" t="n">
-        <v>131.8407173014228</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -821,12 +727,6 @@
       </c>
       <c r="B16" t="n">
         <v>77</v>
-      </c>
-      <c r="C16" t="n">
-        <v>22.3412137731565</v>
-      </c>
-      <c r="D16" t="n">
-        <v>124.6198980300919</v>
       </c>
     </row>
   </sheetData>
